--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>Match</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Home-Away</t>
   </si>
   <si>
+    <t>Competitor</t>
+  </si>
+  <si>
     <t>Manchester United v Leeds United</t>
   </si>
   <si>
@@ -125,6 +128,48 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Leeds United</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Wolverhampton Wanderers</t>
+  </si>
+  <si>
+    <t>Newcastle United</t>
+  </si>
+  <si>
+    <t>Young Boys Berne</t>
+  </si>
+  <si>
+    <t>West Ham United</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Leicester City</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Tottenham Hotspur</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
   </si>
 </sst>
 </file>
@@ -482,13 +527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,277 +546,328 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="season21_22" sheetId="1" r:id="rId1"/>
+    <sheet name="season20_21" sheetId="2" r:id="rId2"/>
+    <sheet name="season19_20" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="127">
   <si>
     <t>Match</t>
   </si>
@@ -170,6 +172,231 @@
   </si>
   <si>
     <t>Manchester City</t>
+  </si>
+  <si>
+    <t>Manchester United v Crystal Palace</t>
+  </si>
+  <si>
+    <t>Luton Town v Manchester United</t>
+  </si>
+  <si>
+    <t>Brighton and Hove Albion v Manchester United</t>
+  </si>
+  <si>
+    <t>Manchester United v Tottenham Hotspur</t>
+  </si>
+  <si>
+    <t>Newcastle United v Manchester United</t>
+  </si>
+  <si>
+    <t>Paris St Germain v Manchester United</t>
+  </si>
+  <si>
+    <t>Manchester United v Chelsea</t>
+  </si>
+  <si>
+    <t>Manchester United v Red Bull Leipzig</t>
+  </si>
+  <si>
+    <t>Manchester United v Arsenal</t>
+  </si>
+  <si>
+    <t>İstanbul Başakşehir v Manchester United</t>
+  </si>
+  <si>
+    <t>Everton v Manchester United</t>
+  </si>
+  <si>
+    <t>Manchester United v West Bromwich Albion</t>
+  </si>
+  <si>
+    <t>Manchester United v İstanbul Başakşehir</t>
+  </si>
+  <si>
+    <t>Manchester United v Paris St Germain</t>
+  </si>
+  <si>
+    <t>Red Bull Leipzig v Manchester United</t>
+  </si>
+  <si>
+    <t>Sheffield United v Manchester United</t>
+  </si>
+  <si>
+    <t>Manchester United v Wolverhampton Wanderers</t>
+  </si>
+  <si>
+    <t>Manchester United v Watford</t>
+  </si>
+  <si>
+    <t>Burnley v Manchester United</t>
+  </si>
+  <si>
+    <t>Liverpool v Manchester United</t>
+  </si>
+  <si>
+    <t>Fulham v Manchester United</t>
+  </si>
+  <si>
+    <t>Manchester United v Sheffield United</t>
+  </si>
+  <si>
+    <t>Arsenal v Manchester United</t>
+  </si>
+  <si>
+    <t>Manchester United v Southampton</t>
+  </si>
+  <si>
+    <t>West Bromwich Albion v Manchester United</t>
+  </si>
+  <si>
+    <t>Real Sociedad v Manchester United</t>
+  </si>
+  <si>
+    <t>Manchester United v Real Sociedad</t>
+  </si>
+  <si>
+    <t>Chelsea v Manchester United</t>
+  </si>
+  <si>
+    <t>Crystal Palace v Manchester United</t>
+  </si>
+  <si>
+    <t>Manchester City v Manchester United</t>
+  </si>
+  <si>
+    <t>Manchester United v AC Milan</t>
+  </si>
+  <si>
+    <t>AC Milan v Manchester United</t>
+  </si>
+  <si>
+    <t>Manchester United v Brighton and Hove Albion</t>
+  </si>
+  <si>
+    <t>Granada v Manchester United</t>
+  </si>
+  <si>
+    <t>Manchester United v Granada</t>
+  </si>
+  <si>
+    <t>Manchester United v Burnley</t>
+  </si>
+  <si>
+    <t>Leeds United v Manchester United</t>
+  </si>
+  <si>
+    <t>Manchester United v AS Roma</t>
+  </si>
+  <si>
+    <t>AS Roma v Manchester United</t>
+  </si>
+  <si>
+    <t>Aston Villa v Manchester United</t>
+  </si>
+  <si>
+    <t>Manchester United v Leicester City</t>
+  </si>
+  <si>
+    <t>Manchester United v Fulham</t>
+  </si>
+  <si>
+    <t>Villarreal v Manchester United</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>0-0</t>
+  </si>
+  <si>
+    <t>5-0</t>
+  </si>
+  <si>
+    <t>1-0</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>9-0</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>1-1 (11-10)</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Luton Town</t>
+  </si>
+  <si>
+    <t>Brighton and Hove Albion</t>
+  </si>
+  <si>
+    <t>Paris St Germain</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Red Bull Leipzig</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>İstanbul Başakşehir</t>
+  </si>
+  <si>
+    <t>West Bromwich Albion</t>
+  </si>
+  <si>
+    <t>Sheffield United</t>
+  </si>
+  <si>
+    <t>Watford</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Real Sociedad</t>
+  </si>
+  <si>
+    <t>AC Milan</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>AS Roma</t>
   </si>
 </sst>
 </file>
@@ -527,347 +754,2433 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>52</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="C62" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="131">
   <si>
     <t>Match</t>
   </si>
@@ -81,6 +81,30 @@
     <t>Manchester United v Manchester City</t>
   </si>
   <si>
+    <t>Watford v Manchester United</t>
+  </si>
+  <si>
+    <t>Villarreal v Manchester United</t>
+  </si>
+  <si>
+    <t>Chelsea v Manchester United</t>
+  </si>
+  <si>
+    <t>Manchester United v Arsenal</t>
+  </si>
+  <si>
+    <t>Manchester United v Crystal Palace</t>
+  </si>
+  <si>
+    <t>Manchester United v Young Boys Berne</t>
+  </si>
+  <si>
+    <t>Norwich City v Manchester United</t>
+  </si>
+  <si>
+    <t>Newcastle United v Manchester United</t>
+  </si>
+  <si>
     <t>W</t>
   </si>
   <si>
@@ -126,6 +150,9 @@
     <t>0-2</t>
   </si>
   <si>
+    <t>1-0</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
@@ -174,7 +201,19 @@
     <t>Manchester City</t>
   </si>
   <si>
-    <t>Manchester United v Crystal Palace</t>
+    <t>Watford</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Norwich City</t>
   </si>
   <si>
     <t>Luton Town v Manchester United</t>
@@ -186,9 +225,6 @@
     <t>Manchester United v Tottenham Hotspur</t>
   </si>
   <si>
-    <t>Newcastle United v Manchester United</t>
-  </si>
-  <si>
     <t>Paris St Germain v Manchester United</t>
   </si>
   <si>
@@ -198,9 +234,6 @@
     <t>Manchester United v Red Bull Leipzig</t>
   </si>
   <si>
-    <t>Manchester United v Arsenal</t>
-  </si>
-  <si>
     <t>İstanbul Başakşehir v Manchester United</t>
   </si>
   <si>
@@ -255,9 +288,6 @@
     <t>Manchester United v Real Sociedad</t>
   </si>
   <si>
-    <t>Chelsea v Manchester United</t>
-  </si>
-  <si>
     <t>Crystal Palace v Manchester United</t>
   </si>
   <si>
@@ -300,9 +330,6 @@
     <t>Manchester United v Fulham</t>
   </si>
   <si>
-    <t>Villarreal v Manchester United</t>
-  </si>
-  <si>
     <t>1-3</t>
   </si>
   <si>
@@ -321,9 +348,6 @@
     <t>5-0</t>
   </si>
   <si>
-    <t>1-0</t>
-  </si>
-  <si>
     <t>6-2</t>
   </si>
   <si>
@@ -348,9 +372,6 @@
     <t>1-1 (11-10)</t>
   </si>
   <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
     <t>Luton Town</t>
   </si>
   <si>
@@ -360,15 +381,9 @@
     <t>Paris St Germain</t>
   </si>
   <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
     <t>Red Bull Leipzig</t>
   </si>
   <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
     <t>İstanbul Başakşehir</t>
   </si>
   <si>
@@ -376,9 +391,6 @@
   </si>
   <si>
     <t>Sheffield United</t>
-  </si>
-  <si>
-    <t>Watford</t>
   </si>
   <si>
     <t>Burnley</t>
@@ -754,7 +766,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -782,16 +794,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -799,16 +811,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -816,16 +828,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -833,16 +845,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -850,16 +862,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -867,16 +879,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -884,16 +896,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -901,16 +913,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -918,16 +930,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -935,16 +947,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -952,16 +964,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -969,16 +981,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -986,16 +998,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1003,16 +1015,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1020,16 +1032,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1037,16 +1049,146 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1081,240 +1223,240 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1322,33 +1464,33 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1356,33 +1498,33 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1390,33 +1532,33 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1424,33 +1566,33 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1458,33 +1600,33 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1492,16 +1634,16 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1509,84 +1651,84 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1594,67 +1736,67 @@
         <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1662,16 +1804,16 @@
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1679,50 +1821,50 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1730,101 +1872,101 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D41" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E45" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1832,33 +1974,33 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1866,50 +2008,50 @@
         <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D48" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E49" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1917,135 +2059,135 @@
         <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D52" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E52" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D53" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E53" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D54" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D55" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D56" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E56" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D57" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D58" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E58" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2053,33 +2195,33 @@
         <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D59" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E59" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C60" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D60" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E60" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2087,33 +2229,33 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D61" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D62" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2148,240 +2290,240 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2389,33 +2531,33 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2423,33 +2565,33 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2457,33 +2599,33 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2491,33 +2633,33 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2525,33 +2667,33 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2559,16 +2701,16 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2576,84 +2718,84 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2661,67 +2803,67 @@
         <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2729,16 +2871,16 @@
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2746,50 +2888,50 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2797,101 +2939,101 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D41" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E45" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2899,33 +3041,33 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2933,50 +3075,50 @@
         <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D48" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E49" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2984,135 +3126,135 @@
         <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D52" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E52" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D53" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E53" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D54" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D55" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D56" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E56" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D57" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D58" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E58" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3120,33 +3262,33 @@
         <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D59" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E59" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C60" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D60" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E60" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3154,33 +3296,33 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D61" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D62" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
